--- a/Project1Rubric_Tapia.xlsx
+++ b/Project1Rubric_Tapia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Images really should be in a separate folder, but that was not a requirement for the assignment.</t>
+  </si>
+  <si>
+    <t>40/40</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7685,7 +7688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -14730,7 +14733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14740,7 +14745,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14843,7 +14850,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -14860,7 +14867,7 @@
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -14877,7 +14884,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14894,7 +14901,7 @@
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -14911,7 +14918,7 @@
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="12" t="s">
